--- a/legacy_openpyxl/tests/test_data/reader/comments.xlsx
+++ b/legacy_openpyxl/tests/test_data/reader/comments.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,6 +29,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Cuke</author>
+    <author>Not Cuke</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0">
@@ -125,12 +128,83 @@
         </r>
       </text>
     </comment>
+    <comment ref="E7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Cuke:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Comment without data in cell</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Not Cuke:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Because it has a different author</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Not Cuke</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>comment has one run</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>this</t>
   </si>
@@ -143,12 +217,21 @@
   <si>
     <t>comments</t>
   </si>
+  <si>
+    <t>This cell is different</t>
+  </si>
+  <si>
+    <t>This sheet has no comments</t>
+  </si>
+  <si>
+    <t>This sheet has one comment</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +251,12 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -472,15 +561,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -488,18 +577,65 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>